--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.0551</v>
+        <v>-12.3103</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.5591</v>
+        <v>-12.81709999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.2941</v>
+        <v>-12.44309999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.431599999999998</v>
+        <v>-7.515799999999993</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.18899999999999</v>
+        <v>-13.8815</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.747499999999999</v>
+        <v>-7.743699999999999</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,10 +641,10 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.061599999999991</v>
+        <v>-7.161799999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>17.5972</v>
+        <v>17.3232</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.8976</v>
+        <v>16.89730000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.0534</v>
+        <v>17.077</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.601399999999993</v>
+        <v>-9.005399999999989</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,13 +706,13 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.1417</v>
+        <v>-14.01409999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.19160000000001</v>
+        <v>16.25370000000001</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.61910000000001</v>
+        <v>16.44380000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.3374</v>
+        <v>-12.0569</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.227599999999988</v>
+        <v>-8.273299999999995</v>
       </c>
       <c r="E20" t="n">
-        <v>16.60319999999999</v>
+        <v>16.8066</v>
       </c>
     </row>
     <row r="21">
@@ -791,10 +791,10 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.4198</v>
+        <v>-12.6737</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.026899999999998</v>
+        <v>-8.107799999999999</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.050100000000006</v>
+        <v>-8.091000000000003</v>
       </c>
       <c r="E22" t="n">
-        <v>16.4453</v>
+        <v>16.4845</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.367799999999996</v>
+        <v>-7.405399999999998</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.77</v>
+        <v>-12.494</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.1895</v>
+        <v>-11.12760000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.022799999999998</v>
+        <v>-7.079899999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.73169999999999</v>
+        <v>-13.16359999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.3974</v>
+        <v>-12.5016</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.907000000000006</v>
+        <v>-7.863400000000002</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8402</v>
+        <v>15.6658</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.76780000000001</v>
+        <v>-11.76060000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.588600000000005</v>
+        <v>-8.737699999999997</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,10 +1168,10 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.0075</v>
+        <v>-8.101699999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>16.9017</v>
+        <v>16.9574</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.298599999999996</v>
+        <v>-7.122199999999997</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.510799999999997</v>
+        <v>-7.619599999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,13 +1216,13 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.5837</v>
+        <v>-14.69019999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.056799999999997</v>
+        <v>-8.335900000000004</v>
       </c>
       <c r="E46" t="n">
-        <v>16.81770000000001</v>
+        <v>16.54840000000002</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.017799999999996</v>
+        <v>-7.971399999999996</v>
       </c>
       <c r="E50" t="n">
-        <v>16.76719999999999</v>
+        <v>16.96139999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.7652</v>
+        <v>-12.392</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.788899999999997</v>
+        <v>-7.724599999999997</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2152</v>
+        <v>-11.17510000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.7884</v>
+        <v>-13.91079999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.782200000000003</v>
+        <v>-8.754199999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.92650000000001</v>
+        <v>-12.77779999999999</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.1966</v>
+        <v>-14.10589999999998</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.821599999999997</v>
+        <v>-7.768599999999997</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.40999999999999</v>
+        <v>-13.2203</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.7291</v>
+        <v>-7.806899999999998</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.558400000000002</v>
+        <v>-6.422100000000004</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.1615</v>
+        <v>-11.26</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.041</v>
+        <v>-12.18120000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.3679</v>
+        <v>16.41699999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.5829</v>
+        <v>-11.6395</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.1616</v>
+        <v>-6.288100000000006</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.992200000000008</v>
+        <v>-8.900100000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.923999999999998</v>
+        <v>-7.981999999999999</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.83010000000001</v>
+        <v>-11.94320000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.468100000000003</v>
+        <v>-6.672700000000003</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.95220000000003</v>
+        <v>18.43480000000003</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.4758</v>
+        <v>-8.552099999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>16.23560000000001</v>
+        <v>16.22899999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.4419</v>
+        <v>16.584</v>
       </c>
     </row>
     <row r="100">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.45659999999999</v>
+        <v>-12.3055</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
